--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -416,12 +416,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.46, 1.18</t>
+          <t>0.46, 1.17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -431,17 +431,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.83, 1.24</t>
+          <t>0.83, 1.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&gt;0.9</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -467,17 +467,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.32, 7.13</t>
+          <t>1.49, 8.38</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.77, 1.22</t>
+          <t>0.76, 1.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -504,32 +504,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.15, 7.27</t>
+          <t>1.31, 8.61</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.21, 2.53</t>
+          <t>1.24, 2.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.32, 8.24</t>
+          <t>1.45, 9.38</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.98, 2.01</t>
+          <t>0.98, 2.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.064</t>
         </is>
       </c>
     </row>
@@ -592,27 +592,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.54, 4.00</t>
+          <t>0.41, 2.27</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>&gt;0.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.20, 1.81</t>
+          <t>1.61, 3.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -629,32 +629,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>1,019,478</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.42, 34.9</t>
+          <t>0.00, NA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>&gt;0.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.00, 4.83</t>
+          <t>0.27, 6.05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.41, 3.45</t>
+          <t>0.43, 3.81</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.34, 5.58</t>
+          <t>1.33, 5.59</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.007</t>
         </is>
       </c>
     </row>
@@ -731,12 +731,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.62, 3.49</t>
+          <t>0.64, 3.75</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.04, 2.04</t>
+          <t>1.04, 2.05</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.81, 12.2</t>
+          <t>0.87, 13.7</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.08, 3.26</t>
+          <t>1.06, 3.21</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.031</t>
         </is>
       </c>
     </row>
@@ -819,27 +819,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.89, 2.50</t>
+          <t>0.36, 1.60</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.20, 1.84</t>
+          <t>1.56, 3.19</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -870,22 +870,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.89, 3.31</t>
+          <t>0.86, 3.26</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>0.094</t>
         </is>
       </c>
     </row>
